--- a/addons/Warehouse/backend/resources/excel/其它出库单数据模板导入.xlsx
+++ b/addons/Warehouse/backend/resources/excel/其它出库单数据模板导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>16.国际电商</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -98,9 +98,6 @@
   <si>
     <t>4.高端珠宝</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售人(选填)</t>
   </si>
   <si>
     <r>
@@ -163,18 +160,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1.香港独立站</t>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDDN12345678</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020090800006390</t>
+    <t>销售人/接收人(选填)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,9 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
@@ -1209,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -1262,30 +1245,16 @@
     </row>
     <row r="2" spans="1:22" ht="24.6" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/addons/Warehouse/backend/resources/excel/其它出库单数据模板导入.xlsx
+++ b/addons/Warehouse/backend/resources/excel/其它出库单数据模板导入.xlsx
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>salesman_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.高端珠宝</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -161,6 +157,10 @@
   </si>
   <si>
     <t>销售人/接收人(选填)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.高端珠宝-平洲(微信)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
@@ -1163,7 +1163,7 @@
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
     <col min="11" max="11" width="9.75" customWidth="1"/>
     <col min="12" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="13" width="11.625" customWidth="1"/>
@@ -1178,7 +1178,7 @@
     <col min="22" max="22" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36.75" hidden="1" customHeight="1">
+    <row r="1" spans="1:22" ht="78" hidden="1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -1204,7 +1204,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
@@ -1245,16 +1245,16 @@
     </row>
     <row r="2" spans="1:22" ht="24.6" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
